--- a/DOCS/Test Cases/TC04- Create Incident.xlsx
+++ b/DOCS/Test Cases/TC04- Create Incident.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4905" windowWidth="17970" windowHeight="4245" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="4905" windowWidth="17970" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>Less then two 3 letters</t>
-  </si>
-  <si>
     <t>More than 260 characters</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>O2:Remove</t>
+  </si>
+  <si>
+    <t>Less then 260 and greater than  three letters</t>
   </si>
 </sst>
 </file>
@@ -776,14 +776,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
@@ -821,19 +823,19 @@
     </row>
     <row r="2" spans="1:9" ht="30.75" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -882,7 +884,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -890,10 +892,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>23</v>
@@ -904,7 +906,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>15</v>
@@ -921,7 +923,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>15</v>
@@ -938,10 +940,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>19</v>
@@ -963,16 +965,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -982,19 +984,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>22</v>
@@ -1007,13 +1009,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1024,13 +1026,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1163,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1234,334 +1236,334 @@
         <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" thickTop="1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="21" customHeight="1">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="26.25" customHeight="1">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" t="s">
         <v>85</v>
       </c>
-      <c r="M9" t="s">
-        <v>86</v>
-      </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
